--- a/data/coded_segments/zm_3_1.xlsx
+++ b/data/coded_segments/zm_3_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A54661A1-B308-D540-9F97-BF5BAF259305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28BA7900-5355-E948-8BB0-F17B65B9D8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
